--- a/modules/core/web/WEB-INF/resources/reports/testRunReport/newTemplate.xlsx
+++ b/modules/core/web/WEB-INF/resources/reports/testRunReport/newTemplate.xlsx
@@ -11,10 +11,10 @@
     <sheet name="regressReport" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Checklist" vbProcedure="false">regressReport!$A$17:$E$17</definedName>
-    <definedName function="false" hidden="false" name="Description" vbProcedure="false">regressReport!$A$1:$E$14</definedName>
-    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$E$16</definedName>
-    <definedName function="false" hidden="false" name="TestCase" vbProcedure="false">regressReport!$A$18:$E$19</definedName>
+    <definedName function="false" hidden="false" name="Checklist" vbProcedure="false">regressReport!$A$17:$D$17</definedName>
+    <definedName function="false" hidden="false" name="Description" vbProcedure="false">regressReport!$A$1:$D$14</definedName>
+    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$D$16</definedName>
+    <definedName function="false" hidden="false" name="TestCase" vbProcedure="false">regressReport!$A$18:$D$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -102,6 +102,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -395,10 +396,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,9 +407,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="104.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -418,7 +418,6 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
@@ -427,14 +426,12 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -443,7 +440,6 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -452,7 +448,6 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -461,7 +456,6 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -470,7 +464,6 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -479,21 +472,18 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -506,7 +496,6 @@
         <v>9</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -514,8 +503,7 @@
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -526,21 +514,18 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
@@ -549,7 +534,6 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
@@ -561,8 +545,7 @@
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -575,33 +558,29 @@
         <v>19</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C18:D19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
